--- a/resources/Cohort Metadata.xlsx
+++ b/resources/Cohort Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18D750-2B6D-4131-8D9D-1708B83D0D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50051FA1-3E4C-438E-9A02-F0437CCF3D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Quality" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -240,16 +240,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -542,24 +532,22 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.85546875" style="8"/>
-    <col min="12" max="12" width="29.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -581,44 +569,37 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G2" s="7"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="7"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="7"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="10"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="6"/>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D79">

--- a/resources/Cohort Metadata.xlsx
+++ b/resources/Cohort Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50051FA1-3E4C-438E-9A02-F0437CCF3D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB870CFE-9DE5-403E-A4ED-23C891D5B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Quality" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="40">
   <si>
     <t>Alc</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>TotalDrks</t>
+  </si>
+  <si>
+    <t>Episode_Identifier</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>37</v>

--- a/resources/Cohort Metadata.xlsx
+++ b/resources/Cohort Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndidier\Desktop\skyn_data_manager\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB870CFE-9DE5-403E-A4ED-23C891D5B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C43670-A5A8-4B92-ADD1-FA071230D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1515" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,7 @@
     <t>TotalDrks</t>
   </si>
   <si>
-    <t>Episode_Identifier</t>
+    <t>Dataset_Identifier</t>
   </si>
 </sst>
 </file>
